--- a/biology/Médecine/Louis_Francisque_Lélut/Louis_Francisque_Lélut.xlsx
+++ b/biology/Médecine/Louis_Francisque_Lélut/Louis_Francisque_Lélut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Francisque_L%C3%A9lut</t>
+          <t>Louis_Francisque_Lélut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Francisque Lélut (15 avril 1804–25 janvier 1877), médecin français et philosophe, né et mort à Gy dans la Haute-Saône[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Francisque Lélut (15 avril 1804–25 janvier 1877), médecin français et philosophe, né et mort à Gy dans la Haute-Saône.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Francisque_L%C3%A9lut</t>
+          <t>Louis_Francisque_Lélut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est connu pour ses ouvrages Du démon de Socrate, spécimen d'une application de la Science psychologique à celle de l'Histoire[2] et L'Amulette de Pascal pour servir à l'histoire des hallucinations[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est connu pour ses ouvrages Du démon de Socrate, spécimen d'une application de la Science psychologique à celle de l'Histoire et L'Amulette de Pascal pour servir à l'histoire des hallucinations.
 Membre de l'Académie des sciences morales et politiques, section de philosophie (fauteuil 2, 1844), ses recherches portaient sur les maladies mentales et la phrénologie.
 On considère que sa Physiologie de la pensée, recherche critique des rapports du corps à l'esprit, datant de 1861, est son œuvre majeure.
 Il est député de la Haute-Saône à l'Assemblée constituante de 1848 où il siège au centre. Il reste député à l'Assemblée nationale durant la Deuxième République, siégeant à droite, et sous le Second Empire, aux deux premières législatures du Corps législatif (1852-1863), au sein de la majorité dynastique.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Francisque_L%C3%A9lut</t>
+          <t>Louis_Francisque_Lélut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Qu’est-ce que la phrénologie ?, vol. in-8°. Paris, 1836.
 Inductions sur la valeur des altérations de l’encéphale dans le délire aigu et dans la folie, br. In-8° de 120 p.
